--- a/Project Management/FLARE_TimeSheet_Schneeberger.xlsx
+++ b/Project Management/FLARE_TimeSheet_Schneeberger.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2762ed547f159086/Dokumente/AppliedGeoinfo/SoSe_25/I3/project_management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="202" documentId="13_ncr:1_{F3184808-6143-46FE-89BA-DFDA45B0FD2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B483462F-4604-4678-AD4A-4B54C5AFBA05}"/>
+  <xr:revisionPtr revIDLastSave="244" documentId="13_ncr:1_{F3184808-6143-46FE-89BA-DFDA45B0FD2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14E19BCD-4D1C-43DA-B1E2-FF6205B775A0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="893" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="69">
   <si>
     <t>Day</t>
   </si>
@@ -257,6 +257,15 @@
   </si>
   <si>
     <t>designing poster (WP4)</t>
+  </si>
+  <si>
+    <t>getting feedback for poster (WP4)</t>
+  </si>
+  <si>
+    <t>practicing for poster presentation (WP4)</t>
+  </si>
+  <si>
+    <t>poster presentatin (WP4)</t>
   </si>
 </sst>
 </file>
@@ -756,7 +765,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1027,20 +1036,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1227,6 +1222,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3382,8 +3381,8 @@
   </sheetPr>
   <dimension ref="A1:AM48"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45:I45"/>
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43:I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -4312,8 +4311,8 @@
   </sheetPr>
   <dimension ref="A1:AM47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23:I23"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39:I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -4585,84 +4584,96 @@
       <c r="I16" s="66"/>
     </row>
     <row r="17" spans="1:9" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="110" t="s">
+      <c r="A17" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="111"/>
-      <c r="C17" s="112"/>
-      <c r="D17" s="112">
+      <c r="B17" s="33"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34">
         <f>C17-B17</f>
         <v>0</v>
       </c>
-      <c r="E17" s="113"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="114"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="115"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="60"/>
     </row>
     <row r="18" spans="1:9" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="110" t="s">
+      <c r="A18" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="111"/>
-      <c r="C18" s="112"/>
-      <c r="D18" s="112">
+      <c r="B18" s="33">
+        <v>0.34375</v>
+      </c>
+      <c r="C18" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="34">
         <f>C18-B18</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="113"/>
-      <c r="F18" s="114"/>
-      <c r="G18" s="114"/>
-      <c r="H18" s="114"/>
-      <c r="I18" s="115"/>
+        <v>0.15625</v>
+      </c>
+      <c r="E18" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="60"/>
     </row>
     <row r="19" spans="1:9" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="110" t="s">
+      <c r="A19" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="111"/>
-      <c r="C19" s="112"/>
-      <c r="D19" s="112">
+      <c r="B19" s="33"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34">
         <f t="shared" ref="D19:D20" si="0">C19-B19</f>
         <v>0</v>
       </c>
-      <c r="E19" s="113"/>
-      <c r="F19" s="114"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="115"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="60"/>
     </row>
     <row r="20" spans="1:9" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="110" t="s">
+      <c r="A20" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="111"/>
-      <c r="C20" s="112"/>
-      <c r="D20" s="112">
+      <c r="B20" s="33">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C20" s="34">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D20" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="113"/>
-      <c r="F20" s="114"/>
-      <c r="G20" s="114"/>
-      <c r="H20" s="114"/>
-      <c r="I20" s="115"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E20" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="60"/>
     </row>
     <row r="21" spans="1:9" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="110" t="s">
+      <c r="A21" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="111"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="112">
+      <c r="B21" s="33"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34">
         <f t="shared" ref="D21:D45" si="1">C21-B21</f>
         <v>0</v>
       </c>
-      <c r="E21" s="113"/>
-      <c r="F21" s="114"/>
-      <c r="G21" s="114"/>
-      <c r="H21" s="114"/>
-      <c r="I21" s="115"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="60"/>
     </row>
     <row r="22" spans="1:9" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="25" t="s">
@@ -4697,84 +4708,102 @@
       <c r="I23" s="66"/>
     </row>
     <row r="24" spans="1:9" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="110" t="s">
+      <c r="A24" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="111"/>
-      <c r="C24" s="112"/>
-      <c r="D24" s="112">
+      <c r="B24" s="33"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34">
         <f>C24-B24</f>
         <v>0</v>
       </c>
-      <c r="E24" s="113"/>
-      <c r="F24" s="114"/>
-      <c r="G24" s="114"/>
-      <c r="H24" s="114"/>
-      <c r="I24" s="115"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="60"/>
     </row>
     <row r="25" spans="1:9" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="110" t="s">
+      <c r="A25" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="111"/>
-      <c r="C25" s="112"/>
-      <c r="D25" s="112">
+      <c r="B25" s="33">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C25" s="34">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D25" s="34">
         <f>C25-B25</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="113"/>
-      <c r="F25" s="114"/>
-      <c r="G25" s="114"/>
-      <c r="H25" s="114"/>
-      <c r="I25" s="115"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E25" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="60"/>
     </row>
     <row r="26" spans="1:9" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="110" t="s">
+      <c r="A26" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="111"/>
-      <c r="C26" s="112"/>
-      <c r="D26" s="112">
+      <c r="B26" s="33"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34">
         <f t="shared" ref="D26:D27" si="2">C26-B26</f>
         <v>0</v>
       </c>
-      <c r="E26" s="113"/>
-      <c r="F26" s="114"/>
-      <c r="G26" s="114"/>
-      <c r="H26" s="114"/>
-      <c r="I26" s="115"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="60"/>
     </row>
     <row r="27" spans="1:9" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="110" t="s">
+      <c r="A27" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="111"/>
-      <c r="C27" s="112"/>
-      <c r="D27" s="112">
+      <c r="B27" s="33">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C27" s="34">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D27" s="34">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="113"/>
-      <c r="F27" s="114"/>
-      <c r="G27" s="114"/>
-      <c r="H27" s="114"/>
-      <c r="I27" s="115"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E27" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="60"/>
     </row>
     <row r="28" spans="1:9" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="110" t="s">
+      <c r="A28" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="111"/>
-      <c r="C28" s="112"/>
-      <c r="D28" s="112">
+      <c r="B28" s="33">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C28" s="34">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D28" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E28" s="113"/>
-      <c r="F28" s="114"/>
-      <c r="G28" s="114"/>
-      <c r="H28" s="114"/>
-      <c r="I28" s="115"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E28" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="107"/>
+      <c r="G28" s="107"/>
+      <c r="H28" s="107"/>
+      <c r="I28" s="108"/>
     </row>
     <row r="29" spans="1:9" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="25" t="s">
@@ -4809,84 +4838,102 @@
       <c r="I30" s="66"/>
     </row>
     <row r="31" spans="1:9" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="110" t="s">
+      <c r="A31" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="111"/>
-      <c r="C31" s="112"/>
-      <c r="D31" s="112">
+      <c r="B31" s="33">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C31" s="34">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D31" s="34">
         <f>C31-B31</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="113"/>
-      <c r="F31" s="114"/>
-      <c r="G31" s="114"/>
-      <c r="H31" s="114"/>
-      <c r="I31" s="115"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E31" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="60"/>
     </row>
     <row r="32" spans="1:9" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="110" t="s">
+      <c r="A32" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="111"/>
-      <c r="C32" s="112"/>
-      <c r="D32" s="112">
+      <c r="B32" s="33">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C32" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="D32" s="34">
         <f>C32-B32</f>
-        <v>0</v>
-      </c>
-      <c r="E32" s="113"/>
-      <c r="F32" s="114"/>
-      <c r="G32" s="114"/>
-      <c r="H32" s="114"/>
-      <c r="I32" s="115"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="E32" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="60"/>
     </row>
     <row r="33" spans="1:12" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="110" t="s">
+      <c r="A33" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="111"/>
-      <c r="C33" s="112"/>
-      <c r="D33" s="112">
+      <c r="B33" s="33"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34">
         <f t="shared" ref="D33:D34" si="3">C33-B33</f>
         <v>0</v>
       </c>
-      <c r="E33" s="113"/>
-      <c r="F33" s="114"/>
-      <c r="G33" s="114"/>
-      <c r="H33" s="114"/>
-      <c r="I33" s="115"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="60"/>
     </row>
     <row r="34" spans="1:12" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="110" t="s">
+      <c r="A34" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="111"/>
-      <c r="C34" s="112"/>
-      <c r="D34" s="112">
+      <c r="B34" s="33">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C34" s="34">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D34" s="34">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E34" s="113"/>
-      <c r="F34" s="114"/>
-      <c r="G34" s="114"/>
-      <c r="H34" s="114"/>
-      <c r="I34" s="115"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E34" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="60"/>
     </row>
     <row r="35" spans="1:12" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="110" t="s">
+      <c r="A35" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="111"/>
-      <c r="C35" s="112"/>
-      <c r="D35" s="112">
+      <c r="B35" s="33"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E35" s="113"/>
-      <c r="F35" s="114"/>
-      <c r="G35" s="114"/>
-      <c r="H35" s="114"/>
-      <c r="I35" s="115"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="60"/>
     </row>
     <row r="36" spans="1:12" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="25" t="s">
@@ -4921,84 +4968,96 @@
       <c r="I37" s="66"/>
     </row>
     <row r="38" spans="1:12" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="110" t="s">
+      <c r="A38" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="111"/>
-      <c r="C38" s="112"/>
-      <c r="D38" s="112">
+      <c r="B38" s="33">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C38" s="34">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D38" s="34">
         <f>C38-B38</f>
-        <v>0</v>
-      </c>
-      <c r="E38" s="113"/>
-      <c r="F38" s="114"/>
-      <c r="G38" s="114"/>
-      <c r="H38" s="114"/>
-      <c r="I38" s="115"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E38" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" s="59"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="60"/>
     </row>
     <row r="39" spans="1:12" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="110" t="s">
+      <c r="A39" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="111"/>
-      <c r="C39" s="112"/>
-      <c r="D39" s="112">
+      <c r="B39" s="33">
+        <v>0.34375</v>
+      </c>
+      <c r="C39" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="D39" s="34">
         <f>C39-B39</f>
-        <v>0</v>
-      </c>
-      <c r="E39" s="113"/>
-      <c r="F39" s="114"/>
-      <c r="G39" s="114"/>
-      <c r="H39" s="114"/>
-      <c r="I39" s="115"/>
+        <v>0.15625</v>
+      </c>
+      <c r="E39" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="60"/>
     </row>
     <row r="40" spans="1:12" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="110" t="s">
+      <c r="A40" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="111"/>
-      <c r="C40" s="112"/>
-      <c r="D40" s="112">
+      <c r="B40" s="33"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34">
         <f t="shared" ref="D40:D41" si="4">C40-B40</f>
         <v>0</v>
       </c>
-      <c r="E40" s="113"/>
-      <c r="F40" s="114"/>
-      <c r="G40" s="114"/>
-      <c r="H40" s="114"/>
-      <c r="I40" s="115"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="60"/>
     </row>
     <row r="41" spans="1:12" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="110" t="s">
+      <c r="A41" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="111"/>
-      <c r="C41" s="112"/>
-      <c r="D41" s="112">
+      <c r="B41" s="33"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E41" s="113"/>
-      <c r="F41" s="114"/>
-      <c r="G41" s="114"/>
-      <c r="H41" s="114"/>
-      <c r="I41" s="115"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="60"/>
     </row>
     <row r="42" spans="1:12" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="110" t="s">
+      <c r="A42" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="111"/>
-      <c r="C42" s="112"/>
-      <c r="D42" s="112">
+      <c r="B42" s="33"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E42" s="113"/>
-      <c r="F42" s="114"/>
-      <c r="G42" s="114"/>
-      <c r="H42" s="114"/>
-      <c r="I42" s="115"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="60"/>
     </row>
     <row r="43" spans="1:12" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="25" t="s">
@@ -5033,20 +5092,20 @@
       <c r="I44" s="66"/>
     </row>
     <row r="45" spans="1:12" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="110" t="s">
+      <c r="A45" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="111"/>
-      <c r="C45" s="112"/>
-      <c r="D45" s="112">
+      <c r="B45" s="33"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E45" s="113"/>
-      <c r="F45" s="114"/>
-      <c r="G45" s="114"/>
-      <c r="H45" s="114"/>
-      <c r="I45" s="115"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="59"/>
+      <c r="I45" s="60"/>
     </row>
     <row r="46" spans="1:12" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="93"/>
@@ -5054,7 +5113,7 @@
       <c r="C46" s="94"/>
       <c r="D46" s="23">
         <f>SUM(D16:D45)</f>
-        <v>0</v>
+        <v>2.6875</v>
       </c>
       <c r="E46" s="95"/>
       <c r="F46" s="95"/>
@@ -5078,10 +5137,6 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="E29:I29"/>
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="E46:I46"/>
     <mergeCell ref="E38:I38"/>
@@ -5091,8 +5146,6 @@
     <mergeCell ref="E44:I44"/>
     <mergeCell ref="E45:I45"/>
     <mergeCell ref="E41:I41"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="E34:I34"/>
     <mergeCell ref="E40:I40"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
@@ -5119,15 +5172,21 @@
     <mergeCell ref="E18:I18"/>
     <mergeCell ref="E21:I21"/>
     <mergeCell ref="E19:I19"/>
-    <mergeCell ref="E20:I20"/>
     <mergeCell ref="E22:I22"/>
     <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E20:I20"/>
     <mergeCell ref="E37:I37"/>
     <mergeCell ref="E30:I30"/>
     <mergeCell ref="E31:I31"/>
     <mergeCell ref="E32:I32"/>
     <mergeCell ref="E35:I35"/>
     <mergeCell ref="E36:I36"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="E34:I34"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.44" right="0.03" top="0.02" bottom="0.03" header="0.19685039370078741" footer="0.19685039370078741"/>
